--- a/EvaluationData/Q6.1_Accuracy.xlsx
+++ b/EvaluationData/Q6.1_Accuracy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\UncertaintyImpactAnalysis\EvaluationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB891AC-84B9-483F-949F-D1776B143DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E02397-68A3-414C-BF4F-87AA9E6C510A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22485" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -549,12 +549,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -579,12 +573,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -594,59 +582,71 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,155 +930,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20:N21"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="53.140625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="47.5703125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="169.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="47.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="169.140625" style="8" customWidth="1"/>
     <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="9" width="36.42578125" style="14" customWidth="1"/>
+    <col min="8" max="9" width="36.42578125" style="12" customWidth="1"/>
     <col min="10" max="10" width="34.85546875" customWidth="1"/>
-    <col min="11" max="12" width="28.7109375" style="14" customWidth="1"/>
+    <col min="11" max="12" width="28.7109375" style="12" customWidth="1"/>
     <col min="13" max="13" width="88.42578125" customWidth="1"/>
-    <col min="14" max="14" width="75.42578125" style="14" customWidth="1"/>
+    <col min="14" max="14" width="75.42578125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="30" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="18"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="2:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="27" t="s">
+      <c r="F3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="39" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="28">
-        <v>1</v>
-      </c>
-      <c r="I4" s="28">
-        <v>1</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="28">
-        <v>1</v>
-      </c>
-      <c r="L4" s="28">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="37">
+        <v>1</v>
+      </c>
+      <c r="I4" s="37">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="37">
+        <v>1</v>
+      </c>
+      <c r="L4" s="37">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>115</v>
       </c>
       <c r="N4" s="32" t="s">
@@ -1086,56 +1086,56 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="7" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="5" t="s">
         <v>116</v>
       </c>
       <c r="N5" s="32"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="28">
-        <v>1</v>
-      </c>
-      <c r="I6" s="28">
-        <v>1</v>
-      </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="38">
+      <c r="G6" s="15"/>
+      <c r="H6" s="37">
+        <v>1</v>
+      </c>
+      <c r="I6" s="37">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="36">
         <f>2/(2+3)</f>
         <v>0.4</v>
       </c>
-      <c r="L6" s="38">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="L6" s="36">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>115</v>
       </c>
       <c r="N6" s="32" t="s">
@@ -1143,152 +1143,152 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="10" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="7" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="5" t="s">
         <v>119</v>
       </c>
       <c r="N7" s="32"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="10" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="7" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="5" t="s">
         <v>123</v>
       </c>
       <c r="N8" s="32"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="10" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="7" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="5" t="s">
         <v>122</v>
       </c>
       <c r="N9" s="32"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="10" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="7" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="5" t="s">
         <v>120</v>
       </c>
       <c r="N10" s="32"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" s="27" t="s">
+      <c r="F11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="28">
-        <v>1</v>
-      </c>
-      <c r="I12" s="28">
-        <v>1</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="38">
+      <c r="G12" s="20"/>
+      <c r="H12" s="37">
+        <v>1</v>
+      </c>
+      <c r="I12" s="37">
+        <v>1</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="36">
         <f>1/(1+3)</f>
         <v>0.25</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="7" t="s">
+      <c r="L12" s="36"/>
+      <c r="M12" s="5" t="s">
         <v>115</v>
       </c>
       <c r="N12" s="32" t="s">
@@ -1296,1031 +1296,1031 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="7" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="5" t="s">
         <v>119</v>
       </c>
       <c r="N13" s="32"/>
     </row>
     <row r="14" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="7" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="5" t="s">
         <v>122</v>
       </c>
       <c r="N14" s="32"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="7" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="5" t="s">
         <v>120</v>
       </c>
       <c r="N15" s="32"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="N16" s="27" t="s">
+      <c r="F16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="29">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29">
-        <v>1</v>
-      </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="7" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="23">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23">
+        <v>1</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N17" s="33"/>
+      <c r="N17" s="25"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="29">
-        <v>1</v>
-      </c>
-      <c r="I18" s="29">
-        <v>1</v>
-      </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="7" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="23">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N18" s="33"/>
+      <c r="N18" s="25"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="29">
-        <v>1</v>
-      </c>
-      <c r="I19" s="29">
-        <v>1</v>
-      </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="7" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="23">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N19" s="33"/>
+      <c r="N19" s="25"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="39" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="28">
-        <v>1</v>
-      </c>
-      <c r="I20" s="28">
-        <v>1</v>
-      </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="7" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="37">
+        <v>1</v>
+      </c>
+      <c r="I20" s="37">
+        <v>1</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="5" t="s">
         <v>115</v>
       </c>
       <c r="N20" s="32"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="7"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="5"/>
       <c r="N21" s="32"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="29">
-        <v>1</v>
-      </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="33"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="23">
+        <v>1</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="25"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="39" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="28">
-        <v>1</v>
-      </c>
-      <c r="I23" s="28">
-        <v>1</v>
-      </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="7" t="s">
+      <c r="G23" s="20"/>
+      <c r="H23" s="37">
+        <v>1</v>
+      </c>
+      <c r="I23" s="37">
+        <v>1</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="5" t="s">
         <v>115</v>
       </c>
       <c r="N23" s="32"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="7"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="32"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="7"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="32"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="N26" s="27" t="s">
+      <c r="F26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="29">
-        <v>1</v>
-      </c>
-      <c r="I27" s="29">
-        <v>1</v>
-      </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="7" t="s">
+      <c r="G27" s="15"/>
+      <c r="H27" s="23">
+        <v>1</v>
+      </c>
+      <c r="I27" s="23">
+        <v>1</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N27" s="34"/>
+      <c r="N27" s="26"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="D28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="29">
-        <v>1</v>
-      </c>
-      <c r="I28" s="29">
-        <v>1</v>
-      </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="7" t="s">
+      <c r="G28" s="15"/>
+      <c r="H28" s="23">
+        <v>1</v>
+      </c>
+      <c r="I28" s="23">
+        <v>1</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N28" s="33"/>
+      <c r="N28" s="25"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="33"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="25"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="39" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="28">
-        <v>1</v>
-      </c>
-      <c r="I30" s="28">
-        <v>1</v>
-      </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="7" t="s">
+      <c r="G30" s="20"/>
+      <c r="H30" s="37">
+        <v>1</v>
+      </c>
+      <c r="I30" s="37">
+        <v>1</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="5" t="s">
         <v>115</v>
       </c>
       <c r="N30" s="32"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="7"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="32"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="7"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="5"/>
       <c r="N32" s="32"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="7"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="5"/>
       <c r="N33" s="32"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
       <c r="F34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="7"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="5"/>
       <c r="N34" s="32"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="7"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="5"/>
       <c r="N35" s="32"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="29">
-        <v>1</v>
-      </c>
-      <c r="I36" s="29">
-        <v>1</v>
-      </c>
-      <c r="J36" s="19"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="7" t="s">
+      <c r="G36" s="15"/>
+      <c r="H36" s="23">
+        <v>1</v>
+      </c>
+      <c r="I36" s="23">
+        <v>1</v>
+      </c>
+      <c r="J36" s="15"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N36" s="33"/>
+      <c r="N36" s="25"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="29">
-        <v>1</v>
-      </c>
-      <c r="I37" s="29">
-        <v>1</v>
-      </c>
-      <c r="J37" s="19"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="7" t="s">
+      <c r="G37" s="15"/>
+      <c r="H37" s="23">
+        <v>1</v>
+      </c>
+      <c r="I37" s="23">
+        <v>1</v>
+      </c>
+      <c r="J37" s="15"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N37" s="33"/>
+      <c r="N37" s="25"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="17" t="s">
+      <c r="D38" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="28">
-        <v>1</v>
-      </c>
-      <c r="I38" s="28">
-        <v>1</v>
-      </c>
-      <c r="J38" s="19"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="7" t="s">
+      <c r="G38" s="20"/>
+      <c r="H38" s="37">
+        <v>1</v>
+      </c>
+      <c r="I38" s="37">
+        <v>1</v>
+      </c>
+      <c r="J38" s="15"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="5" t="s">
         <v>115</v>
       </c>
       <c r="N38" s="32"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="10" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="7"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="5"/>
       <c r="N39" s="32"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="10" t="s">
+      <c r="B40" s="33"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="7"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="5"/>
       <c r="N40" s="32"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="10" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="7"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="5"/>
       <c r="N41" s="32"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="10" t="s">
+      <c r="B42" s="33"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="7"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="5"/>
       <c r="N42" s="32"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13" t="s">
+      <c r="D43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="29">
-        <v>1</v>
-      </c>
-      <c r="I43" s="29">
-        <v>1</v>
-      </c>
-      <c r="J43" s="19"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="7" t="s">
+      <c r="G43" s="15"/>
+      <c r="H43" s="23">
+        <v>1</v>
+      </c>
+      <c r="I43" s="23">
+        <v>1</v>
+      </c>
+      <c r="J43" s="15"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N43" s="33"/>
+      <c r="N43" s="25"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K44" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="L44" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M44" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="N44" s="27" t="s">
+      <c r="F44" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L44" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M44" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N44" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="29">
-        <v>1</v>
-      </c>
-      <c r="I45" s="29">
-        <v>1</v>
-      </c>
-      <c r="J45" s="19"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="7" t="s">
+      <c r="G45" s="15"/>
+      <c r="H45" s="23">
+        <v>1</v>
+      </c>
+      <c r="I45" s="23">
+        <v>1</v>
+      </c>
+      <c r="J45" s="15"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="29">
-        <v>1</v>
-      </c>
-      <c r="I46" s="29">
-        <v>1</v>
-      </c>
-      <c r="J46" s="19"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="7" t="s">
+      <c r="G46" s="15"/>
+      <c r="H46" s="23">
+        <v>1</v>
+      </c>
+      <c r="I46" s="23">
+        <v>1</v>
+      </c>
+      <c r="J46" s="15"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="29">
-        <v>1</v>
-      </c>
-      <c r="I47" s="29">
-        <v>1</v>
-      </c>
-      <c r="J47" s="19"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="7" t="s">
+      <c r="G47" s="15"/>
+      <c r="H47" s="23">
+        <v>1</v>
+      </c>
+      <c r="I47" s="23">
+        <v>1</v>
+      </c>
+      <c r="J47" s="15"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K48" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="L48" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="N48" s="27" t="s">
+      <c r="F48" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M48" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N48" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="11" t="s">
         <v>44</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="29">
-        <v>1</v>
-      </c>
-      <c r="I49" s="29">
-        <v>1</v>
-      </c>
-      <c r="J49" s="19"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="7" t="s">
+      <c r="G49" s="15"/>
+      <c r="H49" s="23">
+        <v>1</v>
+      </c>
+      <c r="I49" s="23">
+        <v>1</v>
+      </c>
+      <c r="J49" s="15"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="28">
-        <v>1</v>
-      </c>
-      <c r="I50" s="28">
-        <v>1</v>
-      </c>
-      <c r="J50" s="19"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="7" t="s">
+      <c r="G50" s="20"/>
+      <c r="H50" s="37">
+        <v>1</v>
+      </c>
+      <c r="I50" s="37">
+        <v>1</v>
+      </c>
+      <c r="J50" s="15"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N50" s="16"/>
+      <c r="N50" s="33"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G51" s="20"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="N51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="N51" s="33"/>
     </row>
     <row r="52" spans="1:14" s="3" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -2331,41 +2331,81 @@
       <c r="J52" s="2"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="N52" s="14"/>
+      <c r="N52" s="12"/>
     </row>
     <row r="53" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
         <v>108</v>
       </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="31"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G54" s="21" t="s">
+      <c r="G54" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="18" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="19" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="N6:N10"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="N38:N42"/>
-    <mergeCell ref="N30:N35"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="L50:L51"/>
     <mergeCell ref="K50:K51"/>
     <mergeCell ref="L38:L42"/>
@@ -2382,54 +2422,14 @@
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="L23:L25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="N6:N10"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="N38:N42"/>
+    <mergeCell ref="N30:N35"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="N20:N21"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
